--- a/medicine/Bioéthique/Michael_Bray/Michael_Bray.xlsx
+++ b/medicine/Bioéthique/Michael_Bray/Michael_Bray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Bray est un militant anti-avortement américain et pasteur d'un mouvement luthérien fondamentaliste.
 Il est considéré comme un terroriste par l'Institut National Memorial pour la prévention du terrorisme.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien Midshipman de l'Académie navale d'Annapolis, il est marié depuis 1976 à Jayne Bray ; il a 11 enfants et habite depuis décembre 2003 à Wilmington, dans l'Ohio.
 Membre de l'organisation anti-avortement Army of God, il a été condamné en 1985, avec deux autres personnes, pour avoir détruit sept cliniques d'avortement dans le Maryland, le Delaware, la Virginie et Washington DC.
-Depuis, il est considéré comme « le père intellectuel de la frange extrémiste radicale du mouvement anti-avortement qui s'engage dans le terrorisme »[1].
+Depuis, il est considéré comme « le père intellectuel de la frange extrémiste radicale du mouvement anti-avortement qui s'engage dans le terrorisme ».
 Initialement condamné à dix ans de prison, il a accepté un plaidoyer de marchandage et a donc été emprisonné 46 mois, de 1985 à 1989.
 En 1994, le FBI le soupçonne, avec d'autres figures anti-avortement, de développer « une conspiration qui s'efforce de parvenir à un changement politique ou social par des activités qui impliquent la force ou la violence », comme indiqué dans un message confidentiel envoyé aux 56 bureaux de terrain du FBI.
 </t>
@@ -547,7 +561,9 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Bray continue de s'exprimer en faveur des personnes qui tuent des médecins avorteurs, y compris Paul Jennings Hill et James Charles Kopp (en).
 Bray a été interviewé par Richard Dawkins pour The Root of All Evil? dans un parc du Colorado où il affirme que l'homosexualité et l'adultère devraient être punis de mort.
@@ -579,7 +595,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bray, Michael (1994), A TIME TO KILL : A Study Concerning the Use of Force and Abortion, Portland, Oregon: Advocates for Life Publications
 </t>
